--- a/Data Files/checkoutUN.xlsx
+++ b/Data Files/checkoutUN.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\April\Documents\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\April\git\Trillia\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8095BA6C-97F8-4C26-80E0-17818BF78364}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E82C2F-57D2-419C-BB26-0D9E9032C198}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2775" windowWidth="20280" windowHeight="9105" xr2:uid="{8CCBE41E-980B-4901-B32C-A36E4B1FA947}"/>
   </bookViews>
@@ -399,7 +399,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,7 +425,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
